--- a/data/trans_orig/P75_M_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P75_M_2012-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DBA618E-86B1-4C10-AC8E-4827570B6D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08F7C597-9AD3-4B18-9558-E46154B44011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3BA48D9F-C29F-4CAE-9975-CD57A06D3A54}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B57D69F-B91B-4ABC-AC90-142D697F8FDA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="421">
   <si>
     <t>Población según el nivel de estudios de su madre cuando tenían 12 años en 2012 (Tasa respuesta: 97,79%)</t>
   </si>
@@ -74,16 +74,16 @@
     <t>4,94%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>3,29%</t>
+    <t>3,38%</t>
   </si>
   <si>
     <t>7,67%</t>
@@ -92,10 +92,10 @@
     <t>5,07%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>Estudios universitarios de grado medio</t>
@@ -104,58 +104,58 @@
     <t>7,94%</t>
   </si>
   <si>
-    <t>5,75%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>10,7%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
+    <t>17,28%</t>
   </si>
   <si>
     <t>11,79%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
   </si>
   <si>
     <t>12,65%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
@@ -164,28 +164,28 @@
     <t>31,93%</t>
   </si>
   <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
   </si>
   <si>
     <t>29,36%</t>
   </si>
   <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>30,68%</t>
   </si>
   <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
   </si>
   <si>
     <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
@@ -194,1102 +194,1108 @@
     <t>25,42%</t>
   </si>
   <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>No sabía leer o escribir</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
     <t>21,41%</t>
   </si>
   <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>No sabía leer o escribir</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>13,58%</t>
   </si>
   <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
     <t>23,93%</t>
   </si>
   <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
   </si>
   <si>
     <t>23,1%</t>
   </si>
   <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
   </si>
   <si>
     <t>23,5%</t>
   </si>
   <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
+    <t>22,42%</t>
   </si>
   <si>
     <t>38,03%</t>
   </si>
   <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
   </si>
   <si>
     <t>40,84%</t>
   </si>
   <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
   </si>
   <si>
     <t>39,46%</t>
   </si>
   <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>17,77%</t>
   </si>
   <si>
-    <t>16,37%</t>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
   </si>
   <si>
     <t>16,45%</t>
   </si>
   <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1704,7 +1710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF41458-FD75-46BF-A842-A25FAA8A48CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91DACBE-7FC7-4611-BDA7-B677787ECCF8}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2008,7 +2014,7 @@
         <v>264</v>
       </c>
       <c r="N7" s="7">
-        <v>266476</v>
+        <v>266477</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -2065,16 +2071,16 @@
         <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>69</v>
@@ -2083,13 +2089,13 @@
         <v>68083</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H9" s="7">
         <v>75</v>
@@ -2098,13 +2104,13 @@
         <v>76342</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M9" s="7">
         <v>144</v>
@@ -2113,19 +2119,19 @@
         <v>144425</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="7">
         <v>5</v>
@@ -2134,13 +2140,13 @@
         <v>4674</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -2149,13 +2155,13 @@
         <v>11187</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -2164,13 +2170,13 @@
         <v>15860</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2191,13 @@
         <v>446231</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H11" s="7">
         <v>413</v>
@@ -2200,33 +2206,33 @@
         <v>422220</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M11" s="7">
         <v>851</v>
       </c>
       <c r="N11" s="7">
-        <v>868451</v>
+        <v>868452</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2238,13 +2244,13 @@
         <v>16485</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -2253,13 +2259,13 @@
         <v>16515</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M12" s="7">
         <v>29</v>
@@ -2268,13 +2274,13 @@
         <v>33000</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,13 +2295,13 @@
         <v>28214</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -2304,13 +2310,13 @@
         <v>26123</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -2319,13 +2325,13 @@
         <v>54337</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2346,13 @@
         <v>47659</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -2355,13 +2361,13 @@
         <v>36533</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -2370,13 +2376,13 @@
         <v>84192</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2397,13 @@
         <v>162872</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H15" s="7">
         <v>110</v>
@@ -2406,13 +2412,13 @@
         <v>116984</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M15" s="7">
         <v>269</v>
@@ -2421,13 +2427,13 @@
         <v>279856</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2448,13 @@
         <v>186582</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H16" s="7">
         <v>180</v>
@@ -2457,13 +2463,13 @@
         <v>190316</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M16" s="7">
         <v>364</v>
@@ -2472,19 +2478,19 @@
         <v>376898</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="7">
         <v>186</v>
@@ -2493,10 +2499,10 @@
         <v>190549</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>127</v>
@@ -2535,7 +2541,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="7">
         <v>40</v>
@@ -2547,10 +2553,10 @@
         <v>134</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -2559,13 +2565,13 @@
         <v>38125</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M18" s="7">
         <v>76</v>
@@ -2577,10 +2583,10 @@
         <v>27</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2601,13 @@
         <v>673410</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H19" s="7">
         <v>561</v>
@@ -2610,13 +2616,13 @@
         <v>600136</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M19" s="7">
         <v>1216</v>
@@ -2625,18 +2631,18 @@
         <v>1273545</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2648,13 +2654,13 @@
         <v>10998</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2663,13 +2669,13 @@
         <v>4873</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -2678,13 +2684,13 @@
         <v>15871</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2705,13 @@
         <v>8653</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -2714,13 +2720,13 @@
         <v>14321</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -2729,13 +2735,13 @@
         <v>22974</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2756,13 @@
         <v>11969</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -2765,13 +2771,13 @@
         <v>16790</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -2780,13 +2786,13 @@
         <v>28759</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2807,13 @@
         <v>82249</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H23" s="7">
         <v>65</v>
@@ -2816,13 +2822,13 @@
         <v>75323</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M23" s="7">
         <v>141</v>
@@ -2831,13 +2837,13 @@
         <v>157573</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2858,13 @@
         <v>212378</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H24" s="7">
         <v>182</v>
@@ -2867,13 +2873,13 @@
         <v>193802</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M24" s="7">
         <v>380</v>
@@ -2882,19 +2888,19 @@
         <v>406180</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="7">
         <v>252</v>
@@ -2903,13 +2909,13 @@
         <v>254441</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H25" s="7">
         <v>283</v>
@@ -2918,13 +2924,13 @@
         <v>297150</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M25" s="7">
         <v>535</v>
@@ -2933,19 +2939,19 @@
         <v>551592</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="7">
         <v>83</v>
@@ -2954,13 +2960,13 @@
         <v>87885</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -2969,13 +2975,13 @@
         <v>98758</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>198</v>
+        <v>67</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M26" s="7">
         <v>179</v>
@@ -2984,13 +2990,13 @@
         <v>186643</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3011,13 @@
         <v>668573</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H27" s="7">
         <v>659</v>
@@ -3020,13 +3026,13 @@
         <v>701018</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M27" s="7">
         <v>1297</v>
@@ -3035,18 +3041,18 @@
         <v>1369591</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3058,13 +3064,13 @@
         <v>8339</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -3073,13 +3079,13 @@
         <v>7736</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -3088,13 +3094,13 @@
         <v>16076</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>212</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3115,13 @@
         <v>13389</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -3124,13 +3130,13 @@
         <v>6136</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -3139,13 +3145,13 @@
         <v>19525</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3166,13 @@
         <v>7793</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3175,13 +3181,13 @@
         <v>10829</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -3190,13 +3196,13 @@
         <v>18622</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3217,13 @@
         <v>62027</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -3226,13 +3232,13 @@
         <v>31543</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M31" s="7">
         <v>80</v>
@@ -3241,10 +3247,10 @@
         <v>93570</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>233</v>
@@ -3283,7 +3289,7 @@
         <v>238</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c r="M32" s="7">
         <v>259</v>
@@ -3292,19 +3298,19 @@
         <v>300805</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="7">
         <v>258</v>
@@ -3313,13 +3319,13 @@
         <v>281779</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H33" s="7">
         <v>253</v>
@@ -3328,13 +3334,13 @@
         <v>284539</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M33" s="7">
         <v>511</v>
@@ -3343,19 +3349,19 @@
         <v>566319</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="7">
         <v>71</v>
@@ -3364,13 +3370,13 @@
         <v>77600</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H34" s="7">
         <v>100</v>
@@ -3379,13 +3385,13 @@
         <v>109866</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M34" s="7">
         <v>171</v>
@@ -3394,13 +3400,13 @@
         <v>187467</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3421,13 @@
         <v>602414</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H35" s="7">
         <v>524</v>
@@ -3430,13 +3436,13 @@
         <v>599969</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M35" s="7">
         <v>1060</v>
@@ -3445,18 +3451,18 @@
         <v>1202383</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3468,13 +3474,13 @@
         <v>3593</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3483,13 +3489,13 @@
         <v>1728</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -3498,13 +3504,13 @@
         <v>5321</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3525,13 @@
         <v>2116</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -3534,13 +3540,13 @@
         <v>3988</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="M37" s="7">
         <v>5</v>
@@ -3549,13 +3555,13 @@
         <v>6104</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3576,13 @@
         <v>6471</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -3585,13 +3591,13 @@
         <v>4130</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M38" s="7">
         <v>9</v>
@@ -3600,13 +3606,13 @@
         <v>10602</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>280</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3627,13 @@
         <v>14801</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H39" s="7">
         <v>19</v>
@@ -3636,13 +3642,13 @@
         <v>21397</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>168</v>
+        <v>288</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M39" s="7">
         <v>32</v>
@@ -3651,13 +3657,13 @@
         <v>36197</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +3678,13 @@
         <v>71224</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H40" s="7">
         <v>60</v>
@@ -3687,13 +3693,13 @@
         <v>67467</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>292</v>
+        <v>39</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M40" s="7">
         <v>124</v>
@@ -3702,19 +3708,19 @@
         <v>138691</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="7">
         <v>207</v>
@@ -3723,13 +3729,13 @@
         <v>224930</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H41" s="7">
         <v>223</v>
@@ -3738,13 +3744,13 @@
         <v>243908</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M41" s="7">
         <v>430</v>
@@ -3753,19 +3759,19 @@
         <v>468838</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="7">
         <v>83</v>
@@ -3774,13 +3780,13 @@
         <v>88053</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>52</v>
+        <v>310</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H42" s="7">
         <v>90</v>
@@ -3789,13 +3795,13 @@
         <v>96952</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M42" s="7">
         <v>173</v>
@@ -3804,13 +3810,13 @@
         <v>185005</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3831,13 @@
         <v>411188</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H43" s="7">
         <v>400</v>
@@ -3840,13 +3846,13 @@
         <v>439570</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M43" s="7">
         <v>777</v>
@@ -3855,18 +3861,18 @@
         <v>850758</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -3878,13 +3884,13 @@
         <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3893,13 +3899,13 @@
         <v>1315</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -3908,13 +3914,13 @@
         <v>1315</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>153</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,13 +3935,13 @@
         <v>5308</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>320</v>
+        <v>158</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>154</v>
+        <v>324</v>
       </c>
       <c r="H45" s="7">
         <v>2</v>
@@ -3944,13 +3950,13 @@
         <v>2224</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="M45" s="7">
         <v>6</v>
@@ -3959,13 +3965,13 @@
         <v>7532</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>260</v>
+        <v>327</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>83</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3986,13 @@
         <v>2091</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H46" s="7">
         <v>5</v>
@@ -3995,13 +4001,13 @@
         <v>5556</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="M46" s="7">
         <v>7</v>
@@ -4010,13 +4016,13 @@
         <v>7647</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,13 +4037,13 @@
         <v>13951</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>138</v>
+        <v>337</v>
       </c>
       <c r="H47" s="7">
         <v>15</v>
@@ -4046,13 +4052,13 @@
         <v>18156</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>75</v>
+        <v>339</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>332</v>
+        <v>279</v>
       </c>
       <c r="M47" s="7">
         <v>27</v>
@@ -4061,13 +4067,13 @@
         <v>32107</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>333</v>
+        <v>269</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4088,13 @@
         <v>66026</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H48" s="7">
         <v>76</v>
@@ -4097,13 +4103,13 @@
         <v>82299</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M48" s="7">
         <v>132</v>
@@ -4112,19 +4118,19 @@
         <v>148325</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="7">
         <v>227</v>
@@ -4133,13 +4139,13 @@
         <v>253423</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H49" s="7">
         <v>322</v>
@@ -4148,13 +4154,13 @@
         <v>343413</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="M49" s="7">
         <v>549</v>
@@ -4163,19 +4169,19 @@
         <v>596836</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" s="7">
         <v>192</v>
@@ -4184,13 +4190,13 @@
         <v>205524</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H50" s="7">
         <v>248</v>
@@ -4199,13 +4205,13 @@
         <v>263163</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M50" s="7">
         <v>440</v>
@@ -4214,13 +4220,13 @@
         <v>468687</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4241,13 @@
         <v>546323</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H51" s="7">
         <v>669</v>
@@ -4250,13 +4256,13 @@
         <v>716125</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M51" s="7">
         <v>1162</v>
@@ -4265,13 +4271,13 @@
         <v>1262449</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4294,13 @@
         <v>61473</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H52" s="7">
         <v>48</v>
@@ -4303,13 +4309,13 @@
         <v>54148</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M52" s="7">
         <v>100</v>
@@ -4318,13 +4324,13 @@
         <v>115621</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4345,13 @@
         <v>93103</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>370</v>
+        <v>78</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H53" s="7">
         <v>63</v>
@@ -4354,13 +4360,13 @@
         <v>71378</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>373</v>
+        <v>278</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M53" s="7">
         <v>150</v>
@@ -4369,13 +4375,13 @@
         <v>164482</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>261</v>
+        <v>369</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4396,13 @@
         <v>136040</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H54" s="7">
         <v>114</v>
@@ -4405,13 +4411,13 @@
         <v>123631</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M54" s="7">
         <v>240</v>
@@ -4420,13 +4426,13 @@
         <v>259671</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4447,13 @@
         <v>478395</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H55" s="7">
         <v>357</v>
@@ -4456,13 +4462,13 @@
         <v>387386</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M55" s="7">
         <v>813</v>
@@ -4471,13 +4477,13 @@
         <v>865780</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4498,13 @@
         <v>801139</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H56" s="7">
         <v>742</v>
@@ -4507,13 +4513,13 @@
         <v>803552</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M56" s="7">
         <v>1485</v>
@@ -4522,19 +4528,19 @@
         <v>1604691</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>400</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="7">
         <v>1199</v>
@@ -4543,13 +4549,13 @@
         <v>1273206</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H57" s="7">
         <v>1321</v>
@@ -4558,13 +4564,13 @@
         <v>1420891</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M57" s="7">
         <v>2520</v>
@@ -4573,19 +4579,19 @@
         <v>2694097</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" s="7">
         <v>474</v>
@@ -4594,13 +4600,13 @@
         <v>504784</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H58" s="7">
         <v>581</v>
@@ -4609,13 +4615,13 @@
         <v>618051</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>69</v>
+        <v>416</v>
       </c>
       <c r="M58" s="7">
         <v>1055</v>
@@ -4624,13 +4630,13 @@
         <v>1122836</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4651,13 @@
         <v>3348140</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H59" s="7">
         <v>3226</v>
@@ -4660,13 +4666,13 @@
         <v>3479038</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M59" s="7">
         <v>6363</v>
@@ -4675,18 +4681,18 @@
         <v>6827178</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P75_M_2012-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P75_M_2012-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08F7C597-9AD3-4B18-9558-E46154B44011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39822CA8-7A26-4E0D-8655-F9ACBA545268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B57D69F-B91B-4ABC-AC90-142D697F8FDA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{49DAC5B1-AF0D-40EC-AF75-0D37580AD144}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="424">
   <si>
     <t>Población según el nivel de estudios de su madre cuando tenían 12 años en 2012 (Tasa respuesta: 97,79%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>4,94%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>Estudios universitarios de grado medio</t>
@@ -104,1159 +104,1174 @@
     <t>7,94%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>No sabía leer o escribir</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
   </si>
   <si>
     <t>15,35%</t>
   </si>
   <si>
-    <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>No sabía leer o escribir</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
   </si>
   <si>
     <t>13,51%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
     <t>23,93%</t>
   </si>
   <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
   </si>
   <si>
     <t>23,1%</t>
   </si>
   <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>23,5%</t>
   </si>
   <si>
-    <t>22,42%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
   </si>
   <si>
     <t>38,03%</t>
   </si>
   <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
   </si>
   <si>
     <t>40,84%</t>
   </si>
   <si>
-    <t>39,04%</t>
+    <t>39,12%</t>
   </si>
   <si>
     <t>42,38%</t>
@@ -1265,37 +1280,31 @@
     <t>39,46%</t>
   </si>
   <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
   </si>
   <si>
     <t>16,45%</t>
   </si>
   <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1710,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91DACBE-7FC7-4611-BDA7-B677787ECCF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1A7670-893A-4579-8FAD-12EF539E4F86}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2071,10 +2080,10 @@
         <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,10 +2322,10 @@
         <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -2325,7 +2334,7 @@
         <v>54337</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>96</v>
@@ -2553,10 +2562,10 @@
         <v>134</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -2675,7 +2684,7 @@
         <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>14</v>
@@ -2684,13 +2693,13 @@
         <v>15871</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2714,13 @@
         <v>8653</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -2720,13 +2729,13 @@
         <v>14321</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -2735,13 +2744,13 @@
         <v>22974</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2765,13 @@
         <v>11969</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -2771,13 +2780,13 @@
         <v>16790</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -2786,13 +2795,13 @@
         <v>28759</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,13 +2816,13 @@
         <v>82249</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H23" s="7">
         <v>65</v>
@@ -2822,13 +2831,13 @@
         <v>75323</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M23" s="7">
         <v>141</v>
@@ -2837,13 +2846,13 @@
         <v>157573</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2867,13 @@
         <v>212378</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H24" s="7">
         <v>182</v>
@@ -2873,13 +2882,13 @@
         <v>193802</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M24" s="7">
         <v>380</v>
@@ -2888,13 +2897,13 @@
         <v>406180</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,13 +2918,13 @@
         <v>254441</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H25" s="7">
         <v>283</v>
@@ -2924,13 +2933,13 @@
         <v>297150</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M25" s="7">
         <v>535</v>
@@ -2939,13 +2948,13 @@
         <v>551592</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2969,13 @@
         <v>87885</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -2975,13 +2984,13 @@
         <v>98758</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M26" s="7">
         <v>179</v>
@@ -2990,13 +2999,13 @@
         <v>186643</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,7 +3061,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3064,13 +3073,13 @@
         <v>8339</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -3079,13 +3088,13 @@
         <v>7736</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -3094,13 +3103,13 @@
         <v>16076</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>81</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3124,13 @@
         <v>13389</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -3130,13 +3139,13 @@
         <v>6136</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -3145,13 +3154,13 @@
         <v>19525</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3175,13 @@
         <v>7793</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -3181,13 +3190,13 @@
         <v>10829</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -3196,13 +3205,13 @@
         <v>18622</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3226,13 @@
         <v>62027</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -3232,13 +3241,13 @@
         <v>31543</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M31" s="7">
         <v>80</v>
@@ -3247,13 +3256,13 @@
         <v>93570</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3277,13 @@
         <v>151486</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H32" s="7">
         <v>127</v>
@@ -3283,13 +3292,13 @@
         <v>149318</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M32" s="7">
         <v>259</v>
@@ -3298,13 +3307,13 @@
         <v>300805</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3328,13 @@
         <v>281779</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H33" s="7">
         <v>253</v>
@@ -3334,13 +3343,13 @@
         <v>284539</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M33" s="7">
         <v>511</v>
@@ -3349,13 +3358,13 @@
         <v>566319</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3370,13 +3379,13 @@
         <v>77600</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H34" s="7">
         <v>100</v>
@@ -3385,13 +3394,13 @@
         <v>109866</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M34" s="7">
         <v>171</v>
@@ -3400,13 +3409,13 @@
         <v>187467</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,7 +3471,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3474,13 +3483,13 @@
         <v>3593</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3489,13 +3498,13 @@
         <v>1728</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -3504,13 +3513,13 @@
         <v>5321</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>269</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3534,13 @@
         <v>2116</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
@@ -3540,13 +3549,13 @@
         <v>3988</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M37" s="7">
         <v>5</v>
@@ -3555,13 +3564,13 @@
         <v>6104</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3585,13 @@
         <v>6471</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -3591,13 +3600,13 @@
         <v>4130</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M38" s="7">
         <v>9</v>
@@ -3606,13 +3615,13 @@
         <v>10602</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>72</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3636,13 @@
         <v>14801</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H39" s="7">
         <v>19</v>
@@ -3642,13 +3651,13 @@
         <v>21397</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="M39" s="7">
         <v>32</v>
@@ -3657,13 +3666,13 @@
         <v>36197</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3687,13 @@
         <v>71224</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H40" s="7">
         <v>60</v>
@@ -3693,13 +3702,13 @@
         <v>67467</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M40" s="7">
         <v>124</v>
@@ -3708,13 +3717,13 @@
         <v>138691</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3738,13 @@
         <v>224930</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H41" s="7">
         <v>223</v>
@@ -3744,13 +3753,13 @@
         <v>243908</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M41" s="7">
         <v>430</v>
@@ -3759,13 +3768,13 @@
         <v>468838</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3789,13 @@
         <v>88053</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H42" s="7">
         <v>90</v>
@@ -3795,13 +3804,13 @@
         <v>96952</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M42" s="7">
         <v>173</v>
@@ -3810,13 +3819,13 @@
         <v>185005</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,7 +3881,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>10</v>
@@ -3884,13 +3893,13 @@
         <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3899,13 +3908,13 @@
         <v>1315</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="L44" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -3914,13 +3923,13 @@
         <v>1315</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>267</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3944,13 @@
         <v>5308</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>158</v>
+        <v>328</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H45" s="7">
         <v>2</v>
@@ -3950,13 +3959,13 @@
         <v>2224</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M45" s="7">
         <v>6</v>
@@ -3965,13 +3974,13 @@
         <v>7532</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3995,13 @@
         <v>2091</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>330</v>
+        <v>210</v>
       </c>
       <c r="H46" s="7">
         <v>5</v>
@@ -4001,13 +4010,13 @@
         <v>5556</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>220</v>
+        <v>336</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M46" s="7">
         <v>7</v>
@@ -4016,13 +4025,13 @@
         <v>7647</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>334</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4046,13 @@
         <v>13951</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H47" s="7">
         <v>15</v>
@@ -4052,13 +4061,13 @@
         <v>18156</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>279</v>
+        <v>344</v>
       </c>
       <c r="M47" s="7">
         <v>27</v>
@@ -4067,13 +4076,13 @@
         <v>32107</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4097,13 @@
         <v>66026</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H48" s="7">
         <v>76</v>
@@ -4103,13 +4112,13 @@
         <v>82299</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M48" s="7">
         <v>132</v>
@@ -4118,13 +4127,13 @@
         <v>148325</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4148,13 @@
         <v>253423</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H49" s="7">
         <v>322</v>
@@ -4154,13 +4163,13 @@
         <v>343413</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="M49" s="7">
         <v>549</v>
@@ -4169,13 +4178,13 @@
         <v>596836</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4199,13 @@
         <v>205524</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="H50" s="7">
         <v>248</v>
@@ -4205,13 +4214,13 @@
         <v>263163</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="M50" s="7">
         <v>440</v>
@@ -4220,13 +4229,13 @@
         <v>468687</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4303,13 @@
         <v>61473</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>368</v>
+        <v>164</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>369</v>
+        <v>163</v>
       </c>
       <c r="H52" s="7">
         <v>48</v>
@@ -4309,13 +4318,13 @@
         <v>54148</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M52" s="7">
         <v>100</v>
@@ -4324,13 +4333,13 @@
         <v>115621</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>330</v>
+        <v>164</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4354,13 @@
         <v>93103</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H53" s="7">
         <v>63</v>
@@ -4360,13 +4369,13 @@
         <v>71378</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>371</v>
+        <v>288</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>278</v>
+        <v>381</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="M53" s="7">
         <v>150</v>
@@ -4375,13 +4384,13 @@
         <v>164482</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>369</v>
+        <v>286</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>377</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4405,13 @@
         <v>136040</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>12</v>
+        <v>384</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>379</v>
+        <v>290</v>
       </c>
       <c r="H54" s="7">
         <v>114</v>
@@ -4411,13 +4420,13 @@
         <v>123631</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>381</v>
+        <v>291</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="M54" s="7">
         <v>240</v>
@@ -4426,13 +4435,13 @@
         <v>259671</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4456,13 @@
         <v>478395</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H55" s="7">
         <v>357</v>
@@ -4462,13 +4471,13 @@
         <v>387386</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M55" s="7">
         <v>813</v>
@@ -4477,13 +4486,13 @@
         <v>865780</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4507,13 @@
         <v>801139</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H56" s="7">
         <v>742</v>
@@ -4513,13 +4522,13 @@
         <v>803552</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="M56" s="7">
         <v>1485</v>
@@ -4528,13 +4537,13 @@
         <v>1604691</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>126</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4558,13 @@
         <v>1273206</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H57" s="7">
         <v>1321</v>
@@ -4564,13 +4573,13 @@
         <v>1420891</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M57" s="7">
         <v>2520</v>
@@ -4579,13 +4588,13 @@
         <v>2694097</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4609,13 @@
         <v>504784</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>413</v>
+        <v>301</v>
       </c>
       <c r="H58" s="7">
         <v>581</v>
@@ -4615,13 +4624,13 @@
         <v>618051</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>414</v>
+        <v>262</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="M58" s="7">
         <v>1055</v>
@@ -4630,13 +4639,13 @@
         <v>1122836</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,7 +4701,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
